--- a/plot_data2.xlsx
+++ b/plot_data2.xlsx
@@ -239,9 +239,9 @@
   <dimension ref="A1:C7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="2.17578125" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.16796875" customWidth="true"/>
+    <col min="3" max="3" width="11.17578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -330,9 +330,9 @@
   <dimension ref="A1:C20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.16796875" customWidth="true"/>
+    <col min="1" max="1" width="3.17578125" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="19.8046875" customWidth="true"/>
+    <col min="3" max="3" width="19.7890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -564,8 +564,8 @@
   <dimension ref="A1:B20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.16796875" customWidth="true"/>
-    <col min="2" max="2" width="3.16796875" customWidth="true"/>
+    <col min="1" max="1" width="3.17578125" customWidth="true"/>
+    <col min="2" max="2" width="3.17578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -737,7 +737,7 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.16796875" customWidth="true"/>
+    <col min="1" max="1" width="3.17578125" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -782,8 +782,8 @@
   <dimension ref="A1:B17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.16796875" customWidth="true"/>
-    <col min="2" max="2" width="14.34765625" customWidth="true"/>
+    <col min="1" max="1" width="3.17578125" customWidth="true"/>
+    <col min="2" max="2" width="14.328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -931,10 +931,10 @@
   <dimension ref="A1:D7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="2.17578125" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.16796875" customWidth="true"/>
+    <col min="4" max="4" width="11.17578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/plot_data2.xlsx
+++ b/plot_data2.xlsx
@@ -19,7 +19,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+  <si>
+    <t>节点编号</t>
+  </si>
+  <si>
+    <t>消纳率</t>
+  </si>
+  <si>
+    <t>节点名称</t>
+  </si>
+  <si>
+    <t>磨舍光伏</t>
+  </si>
+  <si>
+    <t>黔光照光伏</t>
+  </si>
+  <si>
+    <t>黔阳光伏</t>
+  </si>
+  <si>
+    <t>高坡光伏</t>
+  </si>
+  <si>
+    <t>小坪地光伏</t>
+  </si>
+  <si>
+    <t>横冲梁风电场</t>
+  </si>
+  <si>
+    <t>线路编号</t>
+  </si>
+  <si>
+    <t>传输容量</t>
+  </si>
+  <si>
+    <t>线路编号</t>
+  </si>
+  <si>
+    <t>容量限值</t>
+  </si>
+  <si>
+    <t>关键线路编号</t>
+  </si>
+  <si>
+    <t>关键线路容量</t>
+  </si>
+  <si>
+    <t>线路名称</t>
+  </si>
+  <si>
+    <t>仙鹤变-普安变</t>
+  </si>
+  <si>
+    <t>普安变-银山变</t>
+  </si>
+  <si>
+    <t>普安变-横冲梁风电场</t>
+  </si>
+  <si>
+    <t>新店变-横冲梁风电场</t>
+  </si>
+  <si>
+    <t>新店变-银山变</t>
+  </si>
+  <si>
+    <t>银山变-捧古牵引变</t>
+  </si>
+  <si>
+    <t>银山变-青山变</t>
+  </si>
+  <si>
+    <t>银山变-李关变1</t>
+  </si>
+  <si>
+    <t>银山变-李关变2</t>
+  </si>
+  <si>
+    <t>青山变-李关变</t>
+  </si>
+  <si>
+    <t>青山变-糯东厂</t>
+  </si>
+  <si>
+    <t>糯东厂-楼下变</t>
+  </si>
+  <si>
+    <t>楼下变-磨舍光伏</t>
+  </si>
+  <si>
+    <t>磨舍光伏-黔光照光伏</t>
+  </si>
+  <si>
+    <t>银山变-黔阳光伏</t>
+  </si>
+  <si>
+    <t>银山变-高坡光伏</t>
+  </si>
+  <si>
+    <t>银山变-至练池塘变</t>
+  </si>
+  <si>
+    <t>青山变-小坪地光伏</t>
+  </si>
+  <si>
+    <t>节点编号</t>
+  </si>
+  <si>
+    <t>消纳提升</t>
+  </si>
+  <si>
+    <t>节点编号</t>
+  </si>
+  <si>
+    <t>响应前消纳率</t>
+  </si>
+  <si>
+    <t>响应后消纳率</t>
+  </si>
+  <si>
+    <t>节点名称</t>
+  </si>
+  <si>
+    <t>磨舍光伏</t>
+  </si>
+  <si>
+    <t>黔光照光伏</t>
+  </si>
+  <si>
+    <t>黔阳光伏</t>
+  </si>
+  <si>
+    <t>高坡光伏</t>
+  </si>
+  <si>
+    <t>小坪地光伏</t>
+  </si>
+  <si>
+    <t>横冲梁风电场</t>
+  </si>
   <si>
     <t>节点编号</t>
   </si>
@@ -177,7 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -203,11 +341,29 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -227,6 +383,24 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,20 +413,20 @@
   <dimension ref="A1:C7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.17578125" customWidth="true"/>
+    <col min="1" max="1" width="2.16796875" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.17578125" customWidth="true"/>
+    <col min="3" max="3" width="11.16796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -263,7 +437,7 @@
         <v>59.365689601018566</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -274,7 +448,7 @@
         <v>50.456775163970704</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -285,7 +459,7 @@
         <v>66.666666639728049</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -296,7 +470,7 @@
         <v>79.999999967673673</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -307,7 +481,7 @@
         <v>43.011414583492247</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -318,7 +492,7 @@
         <v>99.999999922927657</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -330,20 +504,20 @@
   <dimension ref="A1:C20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.17578125" customWidth="true"/>
+    <col min="1" max="1" width="3.16796875" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="19.7890625" customWidth="true"/>
+    <col min="3" max="3" width="19.8046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
@@ -354,7 +528,7 @@
         <v>25.368390160420972</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -365,7 +539,7 @@
         <v>31.18267628157205</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -376,7 +550,7 @@
         <v>51.127919413972641</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -387,7 +561,7 @@
         <v>12.982081033630212</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -398,7 +572,7 @@
         <v>31.369145024805235</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -409,7 +583,7 @@
         <v>63.157817826774242</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -420,7 +594,7 @@
         <v>39.999999774880699</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -431,7 +605,7 @@
         <v>6.6068211893189277</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -442,7 +616,7 @@
         <v>6.6068211893189277</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -453,7 +627,7 @@
         <v>10.416943920807883</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -464,7 +638,7 @@
         <v>32.615159333628071</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -475,7 +649,7 @@
         <v>32.615159333628078</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -486,7 +660,7 @@
         <v>54.91123238249461</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -497,7 +671,7 @@
         <v>25.228387581985345</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -508,7 +682,7 @@
         <v>79.999999967673659</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -519,7 +693,7 @@
         <v>79.999999967673659</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -530,7 +704,7 @@
         <v>10.526302971129038</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -541,7 +715,7 @@
         <v>10.526302971129038</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -552,7 +726,7 @@
         <v>43.011414583492247</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -564,16 +738,16 @@
   <dimension ref="A1:B20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.17578125" customWidth="true"/>
-    <col min="2" max="2" width="3.17578125" customWidth="true"/>
+    <col min="1" max="1" width="3.16796875" customWidth="true"/>
+    <col min="2" max="2" width="3.16796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -737,16 +911,16 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.17578125" customWidth="true"/>
+    <col min="1" max="1" width="3.16796875" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -782,16 +956,16 @@
   <dimension ref="A1:B17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.17578125" customWidth="true"/>
-    <col min="2" max="2" width="14.328125" customWidth="true"/>
+    <col min="1" max="1" width="3.16796875" customWidth="true"/>
+    <col min="2" max="2" width="14.34765625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -931,24 +1105,24 @@
   <dimension ref="A1:D7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.17578125" customWidth="true"/>
+    <col min="1" max="1" width="2.16796875" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.17578125" customWidth="true"/>
+    <col min="4" max="4" width="11.16796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
@@ -962,7 +1136,7 @@
         <v>58.837991739223192</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -976,7 +1150,7 @@
         <v>49.296531253769182</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -990,7 +1164,7 @@
         <v>66.666666620996125</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -1004,7 +1178,7 @@
         <v>79.999999945195356</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -1018,7 +1192,7 @@
         <v>53.855384896969674</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1032,7 +1206,7 @@
         <v>99.999990450407722</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/plot_data2.xlsx
+++ b/plot_data2.xlsx
@@ -19,7 +19,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="138">
+  <si>
+    <t>节点编号</t>
+  </si>
+  <si>
+    <t>消纳率</t>
+  </si>
+  <si>
+    <t>节点名称</t>
+  </si>
+  <si>
+    <t>磨舍光伏</t>
+  </si>
+  <si>
+    <t>黔光照光伏</t>
+  </si>
+  <si>
+    <t>黔阳光伏</t>
+  </si>
+  <si>
+    <t>高坡光伏</t>
+  </si>
+  <si>
+    <t>小坪地光伏</t>
+  </si>
+  <si>
+    <t>横冲梁风电场</t>
+  </si>
+  <si>
+    <t>线路编号</t>
+  </si>
+  <si>
+    <t>传输容量</t>
+  </si>
+  <si>
+    <t>线路编号</t>
+  </si>
+  <si>
+    <t>容量限值</t>
+  </si>
+  <si>
+    <t>关键线路编号</t>
+  </si>
+  <si>
+    <t>关键线路容量</t>
+  </si>
+  <si>
+    <t>线路名称</t>
+  </si>
+  <si>
+    <t>仙鹤变-普安变</t>
+  </si>
+  <si>
+    <t>普安变-银山变</t>
+  </si>
+  <si>
+    <t>普安变-横冲梁风电场</t>
+  </si>
+  <si>
+    <t>新店变-横冲梁风电场</t>
+  </si>
+  <si>
+    <t>新店变-银山变</t>
+  </si>
+  <si>
+    <t>银山变-捧古牵引变</t>
+  </si>
+  <si>
+    <t>银山变-青山变</t>
+  </si>
+  <si>
+    <t>银山变-李关变1</t>
+  </si>
+  <si>
+    <t>银山变-李关变2</t>
+  </si>
+  <si>
+    <t>青山变-李关变</t>
+  </si>
+  <si>
+    <t>青山变-糯东厂</t>
+  </si>
+  <si>
+    <t>糯东厂-楼下变</t>
+  </si>
+  <si>
+    <t>楼下变-磨舍光伏</t>
+  </si>
+  <si>
+    <t>磨舍光伏-黔光照光伏</t>
+  </si>
+  <si>
+    <t>银山变-黔阳光伏</t>
+  </si>
+  <si>
+    <t>银山变-高坡光伏</t>
+  </si>
+  <si>
+    <t>银山变-至练池塘变</t>
+  </si>
+  <si>
+    <t>青山变-小坪地光伏</t>
+  </si>
+  <si>
+    <t>节点编号</t>
+  </si>
+  <si>
+    <t>消纳提升</t>
+  </si>
+  <si>
+    <t>节点编号</t>
+  </si>
+  <si>
+    <t>响应前消纳率</t>
+  </si>
+  <si>
+    <t>响应后消纳率</t>
+  </si>
+  <si>
+    <t>节点名称</t>
+  </si>
+  <si>
+    <t>磨舍光伏</t>
+  </si>
+  <si>
+    <t>黔光照光伏</t>
+  </si>
+  <si>
+    <t>黔阳光伏</t>
+  </si>
+  <si>
+    <t>高坡光伏</t>
+  </si>
+  <si>
+    <t>小坪地光伏</t>
+  </si>
+  <si>
+    <t>横冲梁风电场</t>
+  </si>
   <si>
     <t>节点编号</t>
   </si>
@@ -315,7 +453,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -359,11 +497,29 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -401,6 +557,24 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,13 +594,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
@@ -437,7 +611,7 @@
         <v>59.365689601018566</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -448,7 +622,7 @@
         <v>50.456775163970704</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +633,7 @@
         <v>66.666666639728049</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +644,7 @@
         <v>79.999999967673673</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +655,7 @@
         <v>43.011414583492247</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +666,7 @@
         <v>99.999999922927657</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -511,13 +685,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
@@ -528,7 +702,7 @@
         <v>25.368390160420972</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
@@ -539,7 +713,7 @@
         <v>31.18267628157205</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +724,7 @@
         <v>51.127919413972641</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -561,7 +735,7 @@
         <v>12.982081033630212</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
@@ -572,7 +746,7 @@
         <v>31.369145024805235</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
@@ -583,7 +757,7 @@
         <v>63.157817826774242</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
@@ -594,7 +768,7 @@
         <v>39.999999774880699</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -605,7 +779,7 @@
         <v>6.6068211893189277</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -616,7 +790,7 @@
         <v>6.6068211893189277</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +801,7 @@
         <v>10.416943920807883</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -638,7 +812,7 @@
         <v>32.615159333628071</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -649,7 +823,7 @@
         <v>32.615159333628078</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -660,7 +834,7 @@
         <v>54.91123238249461</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -671,7 +845,7 @@
         <v>25.228387581985345</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
@@ -682,7 +856,7 @@
         <v>79.999999967673659</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17">
@@ -693,7 +867,7 @@
         <v>79.999999967673659</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18">
@@ -704,7 +878,7 @@
         <v>10.526302971129038</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
@@ -715,7 +889,7 @@
         <v>10.526302971129038</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20">
@@ -726,7 +900,7 @@
         <v>43.011414583492247</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -744,10 +918,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
@@ -917,10 +1091,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
@@ -962,10 +1136,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
@@ -1113,16 +1287,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
@@ -1136,7 +1310,7 @@
         <v>58.837991739223192</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
@@ -1150,7 +1324,7 @@
         <v>49.296531253769182</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
@@ -1164,7 +1338,7 @@
         <v>66.666666620996125</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
@@ -1178,7 +1352,7 @@
         <v>79.999999945195356</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
@@ -1192,7 +1366,7 @@
         <v>53.855384896969674</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
@@ -1206,7 +1380,7 @@
         <v>99.999990450407722</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
